--- a/biology/Biologie cellulaire et moléculaire/OsCEST/OsCEST.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/OsCEST/OsCEST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">OsCEST est la séquence de gène CEST du riz introduite chez Arabidopsis thaliana ecotype Col-0. 
 La protéine homologue retrouvé chez Arabidopsis est AtCEST.
 CEST est la protéine chloroplastique induisant une tolérance au stress (Chloroplast protein Enhancing Stress Tolerance).
-Une équipe de chercheurs japonais[1] a publié en 2010 une étude démontrant les effets d'expression du gène CEST dans la tolérance à différents stress. 
+Une équipe de chercheurs japonais a publié en 2010 une étude démontrant les effets d'expression du gène CEST dans la tolérance à différents stress. 
 La protéine CEST est notamment retrouvé au niveau des chloroplastes.
 Les expériences ont montré une expression du gène CEST au niveau des protoplastes. 
 Leur localisation a été faite grâce à une construction de protéine fusion fluorescente CEST–GFP.
@@ -518,13 +530,15 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les propriétés des protéines CEST sont les suivantes :
 une augmentation de la tolérance au stress salin
 (survie des plantes surexprimant la protéine CESt significativement augmenté pour des concentrations en NaCl supérieure à 160mM)
 une augmentation de la tolérance au stress thermique
-(survie jusqu'à 10 fois supérieur chez des plantes surexprimants CEST par rapport à des plantes n'ayant pas de surexpression)[1]
+(survie jusqu'à 10 fois supérieur chez des plantes surexprimants CEST par rapport à des plantes n'ayant pas de surexpression)
 une augmentation de la tolérance au stress hydrique
 une augmentation de la tolérance au dommages oxydatifs
 module l'activité photo-synthétique
